--- a/Control_de_lectura/S1M22019_Control de lectura Steve Jobs.xlsx
+++ b/Control_de_lectura/S1M22019_Control de lectura Steve Jobs.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Desde</t>
   </si>
@@ -84,9 +84,6 @@
     <t>GARCIA HUACON GENESIS MICHELLE</t>
   </si>
   <si>
-    <t>LOOR SARMIENTO LUIS ERNESTO</t>
-  </si>
-  <si>
     <t>LOPEZ GUTIERREZ DAVID DANIEL</t>
   </si>
   <si>
@@ -106,9 +103,6 @@
   </si>
   <si>
     <t>SÁNCHEZ MONSERRATE MELANIE LISSETTE</t>
-  </si>
-  <si>
-    <t>VILLEGAS ROJAS JUAN ANDRES</t>
   </si>
 </sst>
 </file>
@@ -331,14 +325,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -673,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,10 +696,10 @@
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="7"/>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="24"/>
+      <c r="D5" s="26"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
@@ -804,217 +798,241 @@
       <c r="A15">
         <v>1</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="12"/>
+      <c r="C15" s="12">
+        <v>10</v>
+      </c>
       <c r="D15" s="10"/>
       <c r="E15" s="12"/>
       <c r="F15" s="19"/>
       <c r="G15" s="12">
         <f>SUM(C15:F15)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="12"/>
+      <c r="C16" s="12">
+        <v>10</v>
+      </c>
       <c r="D16" s="10"/>
       <c r="E16" s="12"/>
       <c r="F16" s="19"/>
       <c r="G16" s="12">
         <f t="shared" ref="G16:G37" si="2">SUM(C16:F16)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="12"/>
+      <c r="C17" s="12">
+        <v>10</v>
+      </c>
       <c r="D17" s="10"/>
       <c r="E17" s="12"/>
       <c r="F17" s="19"/>
       <c r="G17" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="12"/>
+      <c r="C18" s="12">
+        <v>10</v>
+      </c>
       <c r="D18" s="18"/>
       <c r="E18" s="12"/>
       <c r="F18" s="19"/>
       <c r="G18" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="12"/>
+      <c r="C19" s="12">
+        <v>10</v>
+      </c>
       <c r="D19" s="18"/>
       <c r="E19" s="12"/>
       <c r="F19" s="19"/>
       <c r="G19" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>6</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="12"/>
+      <c r="C20" s="12">
+        <v>10</v>
+      </c>
       <c r="D20" s="18"/>
       <c r="E20" s="12"/>
       <c r="F20" s="19"/>
       <c r="G20" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>7</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="12"/>
+      <c r="C21" s="12">
+        <v>10</v>
+      </c>
       <c r="D21" s="18"/>
       <c r="E21" s="12"/>
       <c r="F21" s="19"/>
       <c r="G21" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>8</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="12"/>
+      <c r="C22" s="12">
+        <v>10</v>
+      </c>
       <c r="D22" s="18"/>
       <c r="E22" s="12"/>
       <c r="F22" s="19"/>
       <c r="G22" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>9</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="12"/>
+      <c r="C23" s="12">
+        <v>10</v>
+      </c>
       <c r="D23" s="18"/>
       <c r="E23" s="12"/>
       <c r="F23" s="19"/>
       <c r="G23" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="12"/>
+      <c r="C24" s="12">
+        <v>10</v>
+      </c>
       <c r="D24" s="18"/>
       <c r="E24" s="12"/>
       <c r="F24" s="19"/>
       <c r="G24" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>11</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="12"/>
+      <c r="C25" s="12">
+        <v>10</v>
+      </c>
       <c r="D25" s="18"/>
       <c r="E25" s="12"/>
       <c r="F25" s="19"/>
       <c r="G25" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>12</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="12"/>
+      <c r="C26" s="12">
+        <v>10</v>
+      </c>
       <c r="D26" s="18"/>
       <c r="E26" s="12"/>
       <c r="F26" s="19"/>
       <c r="G26" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>13</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="12"/>
+      <c r="C27" s="12">
+        <v>10</v>
+      </c>
       <c r="D27" s="18"/>
       <c r="E27" s="12"/>
       <c r="F27" s="19"/>
       <c r="G27" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>14</v>
       </c>
-      <c r="B28" s="25" t="s">
-        <v>27</v>
-      </c>
+      <c r="B28" s="23"/>
       <c r="C28" s="12"/>
       <c r="D28" s="18"/>
       <c r="E28" s="12"/>
@@ -1028,9 +1046,7 @@
       <c r="A29">
         <v>15</v>
       </c>
-      <c r="B29" s="25" t="s">
-        <v>28</v>
-      </c>
+      <c r="B29" s="23"/>
       <c r="C29" s="12"/>
       <c r="D29" s="18"/>
       <c r="E29" s="12"/>
